--- a/PNS_실습6/acme_list.xlsx
+++ b/PNS_실습6/acme_list.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSH\Documents\UiPath\PNS_실습6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSH\Documents\UiPath\H_RPA\PNS_실습6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="0" windowWidth="13425" windowHeight="10275"/>
+    <workbookView xWindow="4185" yWindow="0" windowWidth="15495" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$F$93</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="17">
   <si>
     <t>Actions</t>
   </si>
@@ -54,6 +57,12 @@
     <t>Open</t>
   </si>
   <si>
+    <t>Generate Yearly Report for Vendor</t>
+  </si>
+  <si>
+    <t>WI4</t>
+  </si>
+  <si>
     <t>Verify Account Position</t>
   </si>
   <si>
@@ -70,12 +79,6 @@
   </si>
   <si>
     <t>WI5</t>
-  </si>
-  <si>
-    <t>Generate Yearly Report for Vendor</t>
-  </si>
-  <si>
-    <t>WI4</t>
   </si>
 </sst>
 </file>
@@ -408,9 +411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -436,7 +441,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>665292</v>
+        <v>458172</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -448,12 +453,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>43295</v>
+        <v>43651</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>326432</v>
+        <v>987112</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -465,12 +470,12 @@
         <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>43353</v>
+        <v>43507</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>139122</v>
+        <v>854652</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -482,80 +487,80 @@
         <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>42819</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>137302</v>
+        <v>844171</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>43374</v>
+        <v>43484</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>259312</v>
+        <v>854391</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>43557</v>
+        <v>43560</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>976542</v>
+        <v>222771</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="1">
-        <v>42983</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>933162</v>
+        <v>452934</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1">
-        <v>43485</v>
+        <v>43332</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>563312</v>
+        <v>952662</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -567,12 +572,12 @@
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>43333</v>
+        <v>43576</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>668542</v>
+        <v>570822</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -584,29 +589,29 @@
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>43331</v>
+        <v>43367</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>504642</v>
+        <v>433804</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1">
-        <v>43211</v>
+        <v>43570</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>222892</v>
+        <v>660352</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -618,12 +623,12 @@
         <v>8</v>
       </c>
       <c r="F12" s="1">
-        <v>43424</v>
+        <v>43353</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>737802</v>
+        <v>444942</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -635,80 +640,80 @@
         <v>8</v>
       </c>
       <c r="F13" s="1">
-        <v>43586</v>
+        <v>43592</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>985072</v>
+        <v>313521</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1">
-        <v>43611</v>
+        <v>43372</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>230412</v>
+        <v>730194</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1">
-        <v>42821</v>
+        <v>43618</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>583002</v>
+        <v>172961</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="1">
-        <v>43623</v>
+        <v>43448</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>108132</v>
+        <v>514374</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>43114</v>
+        <v>43381</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>116212</v>
+        <v>231922</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -720,182 +725,182 @@
         <v>8</v>
       </c>
       <c r="F18" s="1">
-        <v>43380</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>274882</v>
+        <v>863363</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="1">
-        <v>43499</v>
+        <v>43465</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>189262</v>
+        <v>597861</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="1">
-        <v>42989</v>
+        <v>43609</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>580192</v>
+        <v>262811</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="1">
-        <v>43119</v>
+        <v>43346</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>656352</v>
+        <v>696593</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="1">
-        <v>42766</v>
+        <v>43404</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>911292</v>
+        <v>322031</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="1">
-        <v>42761</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>435522</v>
+        <v>903471</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1">
-        <v>43168</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>961982</v>
+        <v>292265</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="1">
-        <v>42989</v>
+        <v>43384</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>365642</v>
+        <v>144901</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="1">
-        <v>43317</v>
+        <v>43347</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>965812</v>
+        <v>404134</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="1">
-        <v>43103</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>632972</v>
+        <v>800621</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="1">
-        <v>42863</v>
+        <v>43547</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>529012</v>
+        <v>485882</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -907,114 +912,114 @@
         <v>8</v>
       </c>
       <c r="F29" s="1">
-        <v>43463</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>512422</v>
+        <v>762641</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="1">
-        <v>43128</v>
+        <v>43381</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>386522</v>
+        <v>901701</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="1">
-        <v>42851</v>
+        <v>43577</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>653162</v>
+        <v>275055</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="1">
-        <v>43576</v>
+        <v>43340</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>418232</v>
+        <v>871831</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="1">
-        <v>43653</v>
+        <v>43410</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>773812</v>
+        <v>389884</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="1">
-        <v>42854</v>
+        <v>43670</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>376772</v>
+        <v>874304</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="1">
-        <v>42778</v>
+        <v>43574</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>372932</v>
+        <v>847672</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1026,29 +1031,29 @@
         <v>8</v>
       </c>
       <c r="F36" s="1">
-        <v>42889</v>
+        <v>43684</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37">
-        <v>174112</v>
+        <v>323891</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="1">
-        <v>43075</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>964802</v>
+        <v>503512</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1060,12 +1065,12 @@
         <v>8</v>
       </c>
       <c r="F38" s="1">
-        <v>43510</v>
+        <v>43356</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>522762</v>
+        <v>510962</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1077,143 +1082,41 @@
         <v>8</v>
       </c>
       <c r="F39" s="1">
-        <v>43610</v>
+        <v>43622</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>770302</v>
+        <v>548384</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="1">
-        <v>43517</v>
+        <v>43597</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>276092</v>
+        <v>944481</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="1">
-        <v>43505</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <v>442452</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="1">
-        <v>43611</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>637442</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="1">
-        <v>43588</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>413652</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="1">
-        <v>42929</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>128262</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="1">
-        <v>43091</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>904912</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="1">
-        <v>43376</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <v>617002</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="1">
-        <v>42846</v>
+        <v>43528</v>
       </c>
     </row>
   </sheetData>
@@ -1224,9 +1127,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F129"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:F93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1252,7 +1158,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>665292</v>
+        <v>458172</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1264,12 +1170,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>43295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>933781</v>
+        <v>811014</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1281,29 +1187,29 @@
         <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>43332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>770871</v>
+        <v>123601</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>43441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>456281</v>
+        <v>136914</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1315,80 +1221,80 @@
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>221973</v>
+        <v>753313</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>42930</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>118131</v>
+        <v>921821</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>297252</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>231174</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>544825</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>43513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>326432</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>43353</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>139122</v>
+        <v>987112</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1400,12 +1306,12 @@
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>42819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>137302</v>
+        <v>459432</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1417,148 +1323,148 @@
         <v>8</v>
       </c>
       <c r="F11" s="1">
-        <v>43374</v>
+        <v>42897</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>644271</v>
+        <v>854652</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="1">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>259312</v>
+        <v>820595</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="1">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>677265</v>
+        <v>213682</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1">
-        <v>43366</v>
+        <v>43260</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>976542</v>
+        <v>844171</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1">
-        <v>42983</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>933162</v>
+        <v>939355</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="1">
-        <v>43485</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>812893</v>
+        <v>684835</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>42826</v>
+        <v>42966</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>563312</v>
+        <v>854391</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1">
-        <v>43333</v>
+        <v>43560</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>904201</v>
+        <v>222771</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="1">
-        <v>42872</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>152851</v>
+        <v>452934</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1570,12 +1476,12 @@
         <v>8</v>
       </c>
       <c r="F20" s="1">
-        <v>43203</v>
+        <v>43332</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>668542</v>
+        <v>952662</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1587,63 +1493,63 @@
         <v>8</v>
       </c>
       <c r="F21" s="1">
-        <v>43331</v>
+        <v>43576</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>161313</v>
+        <v>570822</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="1">
-        <v>43143</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43367</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>504642</v>
+        <v>253855</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="1">
-        <v>43211</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43262</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>222892</v>
+        <v>758575</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="1">
-        <v>43424</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>523731</v>
+        <v>433804</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1655,131 +1561,131 @@
         <v>8</v>
       </c>
       <c r="F25" s="1">
-        <v>43100</v>
+        <v>43570</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>771175</v>
+        <v>660352</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="1">
-        <v>43677</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43353</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>737802</v>
+        <v>759605</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="1">
-        <v>43586</v>
+        <v>42902</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>660954</v>
+        <v>444942</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="1">
-        <v>43122</v>
+        <v>43592</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>985072</v>
+        <v>313521</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="1">
-        <v>43611</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>230412</v>
+        <v>776241</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="1">
-        <v>42821</v>
+        <v>42886</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>624943</v>
+        <v>730194</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="1">
-        <v>42797</v>
+        <v>43618</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>877081</v>
+        <v>172961</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="1">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>427544</v>
+        <v>453225</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -1791,63 +1697,63 @@
         <v>8</v>
       </c>
       <c r="F33" s="1">
-        <v>43089</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>694395</v>
+        <v>430682</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="1">
-        <v>43277</v>
+        <v>42829</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>583002</v>
+        <v>514374</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="1">
-        <v>43623</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>235655</v>
+        <v>794025</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="1">
-        <v>42753</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37">
-        <v>108132</v>
+        <v>946772</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1859,165 +1765,165 @@
         <v>8</v>
       </c>
       <c r="F37" s="1">
-        <v>43114</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>552081</v>
+        <v>219372</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="1">
-        <v>43559</v>
+        <v>43172</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>221463</v>
+        <v>231922</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="1">
-        <v>43064</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>116212</v>
+        <v>863363</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="1">
-        <v>43380</v>
+        <v>43465</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>274882</v>
+        <v>597861</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="1">
-        <v>43499</v>
+        <v>43609</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>189262</v>
+        <v>262811</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="1">
-        <v>42989</v>
+        <v>43346</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>580192</v>
+        <v>696593</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="1">
-        <v>43119</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>428431</v>
+        <v>934372</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="1">
-        <v>43497</v>
+        <v>43002</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>920025</v>
+        <v>322031</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="1">
-        <v>42872</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>901694</v>
+        <v>903471</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="1">
-        <v>43546</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>656352</v>
+        <v>874652</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2029,267 +1935,267 @@
         <v>8</v>
       </c>
       <c r="F47" s="1">
-        <v>42766</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>663894</v>
+        <v>974664</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="1">
-        <v>43434</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+        <v>42816</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>686004</v>
+        <v>925173</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>779271</v>
+        <v>958001</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="1">
-        <v>43215</v>
+        <v>42973</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>737271</v>
+        <v>292265</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="1">
-        <v>43354</v>
+        <v>43384</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>911292</v>
+        <v>144901</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="1">
-        <v>42761</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43347</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>994405</v>
+        <v>297241</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="1">
-        <v>43369</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>615681</v>
+        <v>468192</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="1">
-        <v>43197</v>
+        <v>43296</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>435522</v>
+        <v>404134</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="1">
-        <v>43168</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>961982</v>
+        <v>800621</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="1">
-        <v>42989</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>223603</v>
+        <v>865974</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="1">
-        <v>42846</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>834891</v>
+        <v>639123</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="1">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>411741</v>
+        <v>473391</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="1">
-        <v>43216</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+        <v>42995</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>365642</v>
+        <v>665795</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="1">
-        <v>43317</v>
+        <v>43131</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>335804</v>
+        <v>485882</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="1">
-        <v>43026</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>644591</v>
+        <v>762641</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="1">
-        <v>43087</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>480965</v>
+        <v>483493</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -2301,182 +2207,182 @@
         <v>8</v>
       </c>
       <c r="F63" s="1">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>607693</v>
+        <v>286372</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="1">
-        <v>43648</v>
+        <v>43258</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>965812</v>
+        <v>901701</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="1">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66">
-        <v>435841</v>
+        <v>351802</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="1">
-        <v>43176</v>
+        <v>42915</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>632972</v>
+        <v>275055</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="1">
-        <v>42863</v>
+        <v>43340</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>529012</v>
+        <v>871831</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="1">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43410</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69">
-        <v>399513</v>
+        <v>700032</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="1">
-        <v>43464</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70">
-        <v>512422</v>
+        <v>389884</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="1">
-        <v>43128</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71">
-        <v>288841</v>
+        <v>980431</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="1">
-        <v>43409</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72">
-        <v>386522</v>
+        <v>427243</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="1">
-        <v>42851</v>
+        <v>43034</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73">
-        <v>653162</v>
+        <v>874304</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="1">
-        <v>43576</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74">
-        <v>271205</v>
+        <v>887413</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -2488,148 +2394,148 @@
         <v>8</v>
       </c>
       <c r="F74" s="1">
-        <v>43653</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+        <v>42786</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75">
-        <v>418232</v>
+        <v>329451</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="1">
-        <v>43653</v>
+        <v>42906</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76">
-        <v>509241</v>
+        <v>847672</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="1">
-        <v>42874</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77">
-        <v>984525</v>
+        <v>742411</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="1">
-        <v>43023</v>
+        <v>43272</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78">
-        <v>773812</v>
+        <v>323891</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="1">
-        <v>42854</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79">
-        <v>727171</v>
+        <v>503512</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="1">
-        <v>42827</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>390221</v>
+        <v>334002</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="1">
-        <v>43572</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81">
-        <v>376772</v>
+        <v>334523</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="1">
-        <v>42778</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+        <v>42858</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82">
-        <v>827455</v>
+        <v>922355</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="1">
-        <v>43332</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83">
-        <v>272295</v>
+        <v>761863</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -2641,792 +2547,188 @@
         <v>8</v>
       </c>
       <c r="F83" s="1">
-        <v>42902</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84">
-        <v>372932</v>
+        <v>249465</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
       </c>
       <c r="F84" s="1">
-        <v>42889</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43048</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85">
-        <v>998324</v>
+        <v>567874</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="1">
-        <v>42781</v>
+        <v>43225</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86">
-        <v>714871</v>
+        <v>510962</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="1">
-        <v>43238</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87">
-        <v>948231</v>
+        <v>146232</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
       </c>
       <c r="F87" s="1">
-        <v>43176</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88">
-        <v>174112</v>
+        <v>280211</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="1">
-        <v>43075</v>
+        <v>43295</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89">
-        <v>643364</v>
+        <v>548384</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="1">
-        <v>43611</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90">
-        <v>464063</v>
+        <v>123882</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
       </c>
       <c r="F90" s="1">
-        <v>43223</v>
+        <v>42840</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91">
-        <v>964802</v>
+        <v>944481</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="1">
-        <v>43510</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92">
-        <v>620411</v>
+        <v>456692</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
       </c>
       <c r="F92" s="1">
-        <v>43188</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93">
-        <v>160421</v>
+        <v>428371</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
       </c>
       <c r="F93" s="1">
-        <v>42762</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94">
-        <v>151661</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="1">
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95">
-        <v>998225</v>
-      </c>
-      <c r="C95" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="1">
-        <v>43421</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96">
-        <v>522762</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="1">
-        <v>43610</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97">
-        <v>770302</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" s="1">
-        <v>43517</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98">
-        <v>690745</v>
-      </c>
-      <c r="C98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="1">
-        <v>42804</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99">
-        <v>103371</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" s="1">
-        <v>43159</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100">
-        <v>789653</v>
-      </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="1">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101">
-        <v>990251</v>
-      </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="1">
-        <v>43484</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102">
-        <v>276092</v>
-      </c>
-      <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="1">
-        <v>43505</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103">
-        <v>679765</v>
-      </c>
-      <c r="C103" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" s="1">
-        <v>43320</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104">
-        <v>851315</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="1">
-        <v>43217</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105">
-        <v>442452</v>
-      </c>
-      <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="1">
-        <v>43611</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106">
-        <v>637442</v>
-      </c>
-      <c r="C106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" s="1">
-        <v>43588</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107">
-        <v>699311</v>
-      </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" s="1">
-        <v>43125</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108">
-        <v>520361</v>
-      </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" s="1">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109">
-        <v>276305</v>
-      </c>
-      <c r="C109" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="1">
-        <v>43559</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110">
-        <v>916243</v>
-      </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="1">
-        <v>43677</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111">
-        <v>490135</v>
-      </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="1">
-        <v>43549</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112">
-        <v>162445</v>
-      </c>
-      <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" s="1">
-        <v>43039</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113">
-        <v>263691</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="1">
-        <v>43409</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114">
-        <v>713773</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" s="1">
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115">
-        <v>598335</v>
-      </c>
-      <c r="C115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="1">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116">
-        <v>314703</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="1">
-        <v>43369</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117">
-        <v>204111</v>
-      </c>
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" s="1">
-        <v>43544</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118">
-        <v>160304</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" s="1">
-        <v>43654</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119">
-        <v>953913</v>
-      </c>
-      <c r="C119" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" s="1">
-        <v>43126</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120">
-        <v>575471</v>
-      </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="1">
-        <v>42768</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121">
-        <v>413652</v>
-      </c>
-      <c r="C121" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" s="1">
-        <v>42929</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122">
-        <v>885001</v>
-      </c>
-      <c r="C122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" s="1">
-        <v>43381</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123">
-        <v>292561</v>
-      </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="1">
-        <v>43269</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124">
-        <v>690194</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>16</v>
-      </c>
-      <c r="E124" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" s="1">
-        <v>42962</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125">
-        <v>128262</v>
-      </c>
-      <c r="C125" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="1">
-        <v>43091</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126">
-        <v>904912</v>
-      </c>
-      <c r="C126" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" s="1">
-        <v>43376</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127">
-        <v>803651</v>
-      </c>
-      <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" s="1">
-        <v>43025</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128">
-        <v>617002</v>
-      </c>
-      <c r="C128" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="1">
-        <v>42846</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129">
-        <v>949751</v>
-      </c>
-      <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="1">
-        <v>42833</v>
+        <v>42789</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F93">
+    <filterColumn colId="5">
+      <customFilters and="1">
+        <customFilter operator="greaterThanOrEqual" val="43326"/>
+        <customFilter operator="lessThanOrEqual" val="43691"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
